--- a/PythonResources/Data/Consumption/Sympheny/base_1560_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1560_hea.xlsx
@@ -575,7 +575,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>7.241375065867716</v>
+        <v>7.241375065867715</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -631,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>47.0411254865712</v>
+        <v>47.04112548657119</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -751,7 +751,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.6051213577863994</v>
+        <v>0.6051213577863993</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -791,7 +791,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>63.35375256950034</v>
+        <v>63.35375256950033</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -799,7 +799,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>29.27351792510394</v>
+        <v>29.27351792510393</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>3.384823961019208</v>
+        <v>3.384823961019207</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>19.18343374924022</v>
+        <v>19.18343374924021</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>17.38221914562759</v>
+        <v>17.38221914562758</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>30.51778032684455</v>
+        <v>30.51778032684454</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>29.7713283913741</v>
+        <v>29.77132839137409</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>4.889069681156295</v>
+        <v>4.889069681156294</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>2.091331486204268</v>
+        <v>2.091331486204267</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>34.41503899896312</v>
+        <v>34.41503899896311</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>44.46825483816325</v>
+        <v>44.46825483816324</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>33.74244096523533</v>
+        <v>33.74244096523532</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>34.48625526135783</v>
+        <v>34.48625526135782</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>42.36869391719337</v>
+        <v>42.36869391719336</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>0.3577107869484916</v>
+        <v>0.3577107869484915</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>0.7581601234649672</v>
+        <v>0.7581601234649671</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>6.841127948367918</v>
+        <v>6.841127948367917</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>357</v>
       </c>
       <c r="B357">
-        <v>35.63538680394896</v>
+        <v>35.63538680394895</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>364</v>
       </c>
       <c r="B364">
-        <v>67.11590549279603</v>
+        <v>67.11590549279602</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>35.54131100053867</v>
+        <v>35.54131100053866</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>18.3159727819065</v>
+        <v>18.31597278190649</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>4.070346427551961</v>
+        <v>4.07034642755196</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>15.97814510650495</v>
+        <v>15.97814510650494</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>389</v>
       </c>
       <c r="B389">
-        <v>51.43103657467949</v>
+        <v>51.43103657467948</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>60.66336043458919</v>
+        <v>60.66336043458918</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>50.7326482895495</v>
+        <v>50.73264828954949</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>89.18356856191801</v>
+        <v>89.18356856191799</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>406</v>
       </c>
       <c r="B406">
-        <v>3.739732988838097</v>
+        <v>3.739732988838096</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>408</v>
       </c>
       <c r="B408">
-        <v>47.58154848186272</v>
+        <v>47.58154848186271</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>433</v>
       </c>
       <c r="B433">
-        <v>57.53746473622728</v>
+        <v>57.53746473622727</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>434</v>
       </c>
       <c r="B434">
-        <v>63.71335073393781</v>
+        <v>63.7133507339378</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>463</v>
       </c>
       <c r="B463">
-        <v>64.93750846242625</v>
+        <v>64.93750846242624</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>470</v>
       </c>
       <c r="B470">
-        <v>24.71667357337415</v>
+        <v>24.71667357337414</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>52.64376453266014</v>
+        <v>52.64376453266013</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>477</v>
       </c>
       <c r="B477">
-        <v>59.33105949283471</v>
+        <v>59.3310594928347</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>481</v>
       </c>
       <c r="B481">
-        <v>70.68199389122728</v>
+        <v>70.68199389122726</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>76.51908976824529</v>
+        <v>76.51908976824528</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>496</v>
       </c>
       <c r="B496">
-        <v>29.46946522155292</v>
+        <v>29.46946522155291</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>497</v>
       </c>
       <c r="B497">
-        <v>31.07959750795835</v>
+        <v>31.07959750795834</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>514</v>
       </c>
       <c r="B514">
-        <v>128.4325212725614</v>
+        <v>128.4325212725613</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>522</v>
       </c>
       <c r="B522">
-        <v>107.0201650458862</v>
+        <v>107.0201650458861</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>531</v>
       </c>
       <c r="B531">
-        <v>74.54467018078381</v>
+        <v>74.5446701807838</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>535</v>
       </c>
       <c r="B535">
-        <v>196.5079413459347</v>
+        <v>196.5079413459346</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4639,7 +4639,7 @@
         <v>537</v>
       </c>
       <c r="B537">
-        <v>135.8990921245365</v>
+        <v>135.8990921245364</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4695,7 +4695,7 @@
         <v>544</v>
       </c>
       <c r="B544">
-        <v>62.97451864547256</v>
+        <v>62.97451864547255</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>547</v>
       </c>
       <c r="B547">
-        <v>109.3582857923264</v>
+        <v>109.3582857923263</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>559</v>
       </c>
       <c r="B559">
-        <v>197.4205645603261</v>
+        <v>197.420564560326</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>101.0016581959368</v>
+        <v>101.0016581959367</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>566</v>
       </c>
       <c r="B566">
-        <v>77.97360133312155</v>
+        <v>77.97360133312154</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>576</v>
       </c>
       <c r="B576">
-        <v>33.0853756965566</v>
+        <v>33.08537569655659</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>577</v>
       </c>
       <c r="B577">
-        <v>45.29852509069084</v>
+        <v>45.29852509069083</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>581</v>
       </c>
       <c r="B581">
-        <v>61.44556703677632</v>
+        <v>61.44556703677631</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>93.27747790097834</v>
+        <v>93.27747790097833</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>612</v>
       </c>
       <c r="B612">
-        <v>60.84682290479119</v>
+        <v>60.84682290479118</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5367,7 +5367,7 @@
         <v>628</v>
       </c>
       <c r="B628">
-        <v>56.47244458173195</v>
+        <v>56.47244458173194</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>632</v>
       </c>
       <c r="B632">
-        <v>71.36748705065617</v>
+        <v>71.36748705065615</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>635</v>
       </c>
       <c r="B635">
-        <v>31.96115519225168</v>
+        <v>31.96115519225167</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>645</v>
       </c>
       <c r="B645">
-        <v>77.73123158414862</v>
+        <v>77.7312315841486</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5711,7 +5711,7 @@
         <v>671</v>
       </c>
       <c r="B671">
-        <v>80.84012916226817</v>
+        <v>80.84012916226816</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>681</v>
       </c>
       <c r="B681">
-        <v>75.04142559131479</v>
+        <v>75.04142559131478</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>682</v>
       </c>
       <c r="B682">
-        <v>61.9423224473073</v>
+        <v>61.94232244730729</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>696</v>
       </c>
       <c r="B696">
-        <v>8.116543801518226</v>
+        <v>8.116543801518224</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>699</v>
       </c>
       <c r="B699">
-        <v>38.59305972611926</v>
+        <v>38.59305972611925</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>42.36371170953613</v>
+        <v>42.36371170953612</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>705</v>
       </c>
       <c r="B705">
-        <v>82.36878769992575</v>
+        <v>82.36878769992573</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6119,7 +6119,7 @@
         <v>722</v>
       </c>
       <c r="B722">
-        <v>42.83526301074223</v>
+        <v>42.83526301074222</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>724</v>
       </c>
       <c r="B724">
-        <v>59.61152847683362</v>
+        <v>59.61152847683361</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>734</v>
       </c>
       <c r="B734">
-        <v>20.70775483552561</v>
+        <v>20.7077548355256</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>738</v>
       </c>
       <c r="B738">
-        <v>18.51599376579287</v>
+        <v>18.51599376579286</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>64.56530824332634</v>
+        <v>64.56530824332633</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>784</v>
       </c>
       <c r="B784">
-        <v>63.08383414289324</v>
+        <v>63.08383414289323</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6679,7 +6679,7 @@
         <v>792</v>
       </c>
       <c r="B792">
-        <v>43.88973260784575</v>
+        <v>43.88973260784574</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6751,7 +6751,7 @@
         <v>801</v>
       </c>
       <c r="B801">
-        <v>74.28442309845254</v>
+        <v>74.28442309845252</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6831,7 +6831,7 @@
         <v>811</v>
       </c>
       <c r="B811">
-        <v>89.83008327320493</v>
+        <v>89.83008327320492</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>92.02166850031448</v>
+        <v>92.02166850031446</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>854</v>
       </c>
       <c r="B854">
-        <v>68.85323060998049</v>
+        <v>68.85323060998047</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7247,7 +7247,7 @@
         <v>863</v>
       </c>
       <c r="B863">
-        <v>43.40089011535863</v>
+        <v>43.40089011535862</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7255,7 +7255,7 @@
         <v>864</v>
       </c>
       <c r="B864">
-        <v>64.52222680064312</v>
+        <v>64.52222680064311</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>873</v>
       </c>
       <c r="B873">
-        <v>83.38486499096463</v>
+        <v>83.38486499096462</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>60.43916109001326</v>
+        <v>60.43916109001325</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7543,7 +7543,7 @@
         <v>900</v>
       </c>
       <c r="B900">
-        <v>66.66486916429622</v>
+        <v>66.66486916429621</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>60.86001110153095</v>
+        <v>60.86001110153094</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7727,7 +7727,7 @@
         <v>923</v>
       </c>
       <c r="B923">
-        <v>53.0663729704098</v>
+        <v>53.06637297040979</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7735,7 +7735,7 @@
         <v>924</v>
       </c>
       <c r="B924">
-        <v>43.8870949684978</v>
+        <v>43.88709496849779</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7759,7 +7759,7 @@
         <v>927</v>
       </c>
       <c r="B927">
-        <v>32.12732647117266</v>
+        <v>32.12732647117265</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7791,7 +7791,7 @@
         <v>931</v>
       </c>
       <c r="B931">
-        <v>53.1762746099078</v>
+        <v>53.17627460990779</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7871,7 +7871,7 @@
         <v>941</v>
       </c>
       <c r="B941">
-        <v>12.68212167020013</v>
+        <v>12.68212167020012</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -8183,7 +8183,7 @@
         <v>980</v>
       </c>
       <c r="B980">
-        <v>5.160951683722425</v>
+        <v>5.160951683722424</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8239,7 +8239,7 @@
         <v>987</v>
       </c>
       <c r="B987">
-        <v>12.24225134827332</v>
+        <v>12.24225134827331</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8455,7 +8455,7 @@
         <v>1014</v>
       </c>
       <c r="B1014">
-        <v>240.6160118775831</v>
+        <v>240.616011877583</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8487,7 +8487,7 @@
         <v>1018</v>
       </c>
       <c r="B1018">
-        <v>79.02074415425854</v>
+        <v>79.02074415425852</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>1020</v>
       </c>
       <c r="B1020">
-        <v>63.21923296275478</v>
+        <v>63.21923296275477</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8519,7 +8519,7 @@
         <v>1022</v>
       </c>
       <c r="B1022">
-        <v>50.24878800471962</v>
+        <v>50.24878800471961</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>1023</v>
       </c>
       <c r="B1023">
-        <v>30.81202364966054</v>
+        <v>30.81202364966053</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>1043</v>
       </c>
       <c r="B1043">
-        <v>49.41558704180542</v>
+        <v>49.41558704180541</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8887,7 +8887,7 @@
         <v>1068</v>
       </c>
       <c r="B1068">
-        <v>3.146264135548873</v>
+        <v>3.146264135548872</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8903,7 +8903,7 @@
         <v>1070</v>
       </c>
       <c r="B1070">
-        <v>1.129451822345026</v>
+        <v>1.129451822345025</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -9071,7 +9071,7 @@
         <v>1091</v>
       </c>
       <c r="B1091">
-        <v>46.78380911462654</v>
+        <v>46.78380911462653</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>13.14514460418119</v>
+        <v>13.14514460418118</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9231,7 +9231,7 @@
         <v>1111</v>
       </c>
       <c r="B1111">
-        <v>128.7721906063699</v>
+        <v>128.7721906063698</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>77.28078139772613</v>
+        <v>77.28078139772612</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>1122</v>
       </c>
       <c r="B1122">
-        <v>82.01915395080276</v>
+        <v>82.01915395080275</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>1149</v>
       </c>
       <c r="B1149">
-        <v>65.75546973133007</v>
+        <v>65.75546973133005</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -9559,7 +9559,7 @@
         <v>1152</v>
       </c>
       <c r="B1152">
-        <v>69.69639598820918</v>
+        <v>69.69639598820916</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -9647,7 +9647,7 @@
         <v>1163</v>
       </c>
       <c r="B1163">
-        <v>29.25558197753787</v>
+        <v>29.25558197753786</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
@@ -9815,7 +9815,7 @@
         <v>1184</v>
       </c>
       <c r="B1184">
-        <v>72.95769050643263</v>
+        <v>72.95769050643261</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
@@ -9903,7 +9903,7 @@
         <v>1195</v>
       </c>
       <c r="B1195">
-        <v>30.49990299348621</v>
+        <v>30.4999029934862</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
@@ -10023,7 +10023,7 @@
         <v>1210</v>
       </c>
       <c r="B1210">
-        <v>64.32821377304931</v>
+        <v>64.3282137730493</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
@@ -10055,7 +10055,7 @@
         <v>1214</v>
       </c>
       <c r="B1214">
-        <v>30.05150430433435</v>
+        <v>30.05150430433434</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
@@ -10191,7 +10191,7 @@
         <v>1231</v>
       </c>
       <c r="B1231">
-        <v>57.22182722758901</v>
+        <v>57.221827227589</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10231,7 +10231,7 @@
         <v>1236</v>
       </c>
       <c r="B1236">
-        <v>0.8882602189475116</v>
+        <v>0.8882602189475115</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
@@ -10439,7 +10439,7 @@
         <v>1262</v>
       </c>
       <c r="B1262">
-        <v>0.9823682601720564</v>
+        <v>0.982368260172056</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>1263</v>
       </c>
       <c r="B1263">
-        <v>0.3334650199200385</v>
+        <v>0.3334650199200384</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -10567,7 +10567,7 @@
         <v>1278</v>
       </c>
       <c r="B1278">
-        <v>106.0843892194405</v>
+        <v>106.0843892194404</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
@@ -10575,7 +10575,7 @@
         <v>1279</v>
       </c>
       <c r="B1279">
-        <v>49.0055806587182</v>
+        <v>49.00558065871819</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
@@ -10615,7 +10615,7 @@
         <v>1284</v>
       </c>
       <c r="B1284">
-        <v>5.829563951324418</v>
+        <v>5.829563951324417</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
@@ -11359,7 +11359,7 @@
         <v>1377</v>
       </c>
       <c r="B1377">
-        <v>8.735656370690318</v>
+        <v>8.735656370690316</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
@@ -11367,7 +11367,7 @@
         <v>1378</v>
       </c>
       <c r="B1378">
-        <v>3.249659597988595</v>
+        <v>3.249659597988594</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
@@ -11791,7 +11791,7 @@
         <v>1431</v>
       </c>
       <c r="B1431">
-        <v>8.334442118762937</v>
+        <v>8.334442118762935</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
@@ -11895,7 +11895,7 @@
         <v>1444</v>
       </c>
       <c r="B1444">
-        <v>27.41342534982425</v>
+        <v>27.41342534982424</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
@@ -12095,7 +12095,7 @@
         <v>1469</v>
       </c>
       <c r="B1469">
-        <v>51.92515434586252</v>
+        <v>51.92515434586251</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12151,7 +12151,7 @@
         <v>1476</v>
       </c>
       <c r="B1476">
-        <v>7.676263180137287</v>
+        <v>7.676263180137286</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
@@ -12175,7 +12175,7 @@
         <v>1479</v>
       </c>
       <c r="B1479">
-        <v>0.531853598121063</v>
+        <v>0.5318535981210629</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
@@ -12287,7 +12287,7 @@
         <v>1493</v>
       </c>
       <c r="B1493">
-        <v>78.84783224144834</v>
+        <v>78.84783224144833</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
@@ -12311,7 +12311,7 @@
         <v>1496</v>
       </c>
       <c r="B1496">
-        <v>42.04543656154991</v>
+        <v>42.0454365615499</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
@@ -12335,7 +12335,7 @@
         <v>1499</v>
       </c>
       <c r="B1499">
-        <v>9.366843466655258</v>
+        <v>9.366843466655256</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
@@ -12343,7 +12343,7 @@
         <v>1500</v>
       </c>
       <c r="B1500">
-        <v>3.976065474414606</v>
+        <v>3.976065474414605</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
@@ -12439,7 +12439,7 @@
         <v>1512</v>
       </c>
       <c r="B1512">
-        <v>18.23394219818519</v>
+        <v>18.23394219818518</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
@@ -12479,7 +12479,7 @@
         <v>1517</v>
       </c>
       <c r="B1517">
-        <v>44.24903770124456</v>
+        <v>44.24903770124455</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
@@ -12503,7 +12503,7 @@
         <v>1520</v>
       </c>
       <c r="B1520">
-        <v>60.77824428174444</v>
+        <v>60.77824428174443</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
@@ -12551,7 +12551,7 @@
         <v>1526</v>
       </c>
       <c r="B1526">
-        <v>6.537066745756772</v>
+        <v>6.537066745756771</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
@@ -12871,7 +12871,7 @@
         <v>1566</v>
       </c>
       <c r="B1566">
-        <v>86.36539745415051</v>
+        <v>86.3653974541505</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
@@ -12879,7 +12879,7 @@
         <v>1567</v>
       </c>
       <c r="B1567">
-        <v>45.44916360456277</v>
+        <v>45.44916360456276</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
@@ -13167,7 +13167,7 @@
         <v>1603</v>
       </c>
       <c r="B1603">
-        <v>20.53586867135073</v>
+        <v>20.53586867135072</v>
       </c>
     </row>
     <row r="1604" spans="1:2">
@@ -13231,7 +13231,7 @@
         <v>1611</v>
       </c>
       <c r="B1611">
-        <v>30.68864074238412</v>
+        <v>30.68864074238411</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
@@ -13271,7 +13271,7 @@
         <v>1616</v>
       </c>
       <c r="B1616">
-        <v>73.22995350134902</v>
+        <v>73.229953501349</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13327,7 +13327,7 @@
         <v>1623</v>
       </c>
       <c r="B1623">
-        <v>9.765595921857884</v>
+        <v>9.765595921857882</v>
       </c>
     </row>
     <row r="1624" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>7.082090956355275</v>
+        <v>7.082090956355274</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13351,7 +13351,7 @@
         <v>1626</v>
       </c>
       <c r="B1626">
-        <v>9.64150964408867</v>
+        <v>9.641509644088668</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13655,7 +13655,7 @@
         <v>1664</v>
       </c>
       <c r="B1664">
-        <v>25.95155770187759</v>
+        <v>25.95155770187758</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
@@ -13815,7 +13815,7 @@
         <v>1684</v>
       </c>
       <c r="B1684">
-        <v>44.50107879449332</v>
+        <v>44.50107879449331</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
@@ -13839,7 +13839,7 @@
         <v>1687</v>
       </c>
       <c r="B1687">
-        <v>94.48815436168836</v>
+        <v>94.48815436168834</v>
       </c>
     </row>
     <row r="1688" spans="1:2">
@@ -13879,7 +13879,7 @@
         <v>1692</v>
       </c>
       <c r="B1692">
-        <v>6.985582663324094</v>
+        <v>6.985582663324093</v>
       </c>
     </row>
     <row r="1693" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>4.598020832661713</v>
+        <v>4.598020832661712</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>2.964589398682705</v>
+        <v>2.964589398682704</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14111,7 +14111,7 @@
         <v>1721</v>
       </c>
       <c r="B1721">
-        <v>0.3305225866918786</v>
+        <v>0.3305225866918785</v>
       </c>
     </row>
     <row r="1722" spans="1:2">
@@ -14215,7 +14215,7 @@
         <v>1734</v>
       </c>
       <c r="B1734">
-        <v>79.02338179360649</v>
+        <v>79.02338179360648</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14447,7 +14447,7 @@
         <v>1763</v>
       </c>
       <c r="B1763">
-        <v>3.094918089575405</v>
+        <v>3.094918089575404</v>
       </c>
     </row>
     <row r="1764" spans="1:2">
@@ -14799,7 +14799,7 @@
         <v>1807</v>
       </c>
       <c r="B1807">
-        <v>8.608991067780885</v>
+        <v>8.608991067780883</v>
       </c>
     </row>
     <row r="1808" spans="1:2">
@@ -14807,7 +14807,7 @@
         <v>1808</v>
       </c>
       <c r="B1808">
-        <v>6.304983790240852</v>
+        <v>6.304983790240851</v>
       </c>
     </row>
     <row r="1809" spans="1:2">
@@ -14815,7 +14815,7 @@
         <v>1809</v>
       </c>
       <c r="B1809">
-        <v>6.55459239386872</v>
+        <v>6.554592393868719</v>
       </c>
     </row>
     <row r="1810" spans="1:2">
@@ -14895,7 +14895,7 @@
         <v>1819</v>
       </c>
       <c r="B1819">
-        <v>0.7631335389910503</v>
+        <v>0.7631335389910502</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
@@ -14903,7 +14903,7 @@
         <v>1820</v>
       </c>
       <c r="B1820">
-        <v>3.233950990316348</v>
+        <v>3.233950990316347</v>
       </c>
     </row>
     <row r="1821" spans="1:2">
@@ -14959,7 +14959,7 @@
         <v>1827</v>
       </c>
       <c r="B1827">
-        <v>51.35425196255022</v>
+        <v>51.35425196255021</v>
       </c>
     </row>
     <row r="1828" spans="1:2">
@@ -14975,7 +14975,7 @@
         <v>1829</v>
       </c>
       <c r="B1829">
-        <v>59.18364476038806</v>
+        <v>59.18364476038805</v>
       </c>
     </row>
     <row r="1830" spans="1:2">
@@ -15423,7 +15423,7 @@
         <v>1885</v>
       </c>
       <c r="B1885">
-        <v>0.9152784380017012</v>
+        <v>0.9152784380017009</v>
       </c>
     </row>
     <row r="1886" spans="1:2">
@@ -15559,7 +15559,7 @@
         <v>1902</v>
       </c>
       <c r="B1902">
-        <v>69.97920954051737</v>
+        <v>69.97920954051736</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
@@ -15583,7 +15583,7 @@
         <v>1905</v>
       </c>
       <c r="B1905">
-        <v>5.842019470467525</v>
+        <v>5.842019470467524</v>
       </c>
     </row>
     <row r="1906" spans="1:2">
@@ -15783,7 +15783,7 @@
         <v>1930</v>
       </c>
       <c r="B1930">
-        <v>1.063384818099599</v>
+        <v>1.063384818099598</v>
       </c>
     </row>
     <row r="1931" spans="1:2">
@@ -15951,7 +15951,7 @@
         <v>1951</v>
       </c>
       <c r="B1951">
-        <v>19.44321191790964</v>
+        <v>19.44321191790963</v>
       </c>
     </row>
     <row r="1952" spans="1:2">
@@ -15983,7 +15983,7 @@
         <v>1955</v>
       </c>
       <c r="B1955">
-        <v>8.755262823176762</v>
+        <v>8.755262823176761</v>
       </c>
     </row>
     <row r="1956" spans="1:2">
@@ -15991,7 +15991,7 @@
         <v>1956</v>
       </c>
       <c r="B1956">
-        <v>8.272604129605392</v>
+        <v>8.272604129605391</v>
       </c>
     </row>
     <row r="1957" spans="1:2">
@@ -15999,7 +15999,7 @@
         <v>1957</v>
       </c>
       <c r="B1957">
-        <v>8.417820829262089</v>
+        <v>8.417820829262087</v>
       </c>
     </row>
     <row r="1958" spans="1:2">
@@ -16103,7 +16103,7 @@
         <v>1970</v>
       </c>
       <c r="B1970">
-        <v>0.8933244864955797</v>
+        <v>0.8933244864955796</v>
       </c>
     </row>
     <row r="1971" spans="1:2">
@@ -16151,7 +16151,7 @@
         <v>1976</v>
       </c>
       <c r="B1976">
-        <v>16.72236970208157</v>
+        <v>16.72236970208156</v>
       </c>
     </row>
     <row r="1977" spans="1:2">
@@ -16159,7 +16159,7 @@
         <v>1977</v>
       </c>
       <c r="B1977">
-        <v>17.59633684647357</v>
+        <v>17.59633684647356</v>
       </c>
     </row>
     <row r="1978" spans="1:2">
@@ -16175,7 +16175,7 @@
         <v>1979</v>
       </c>
       <c r="B1979">
-        <v>3.662274313319904</v>
+        <v>3.662274313319903</v>
       </c>
     </row>
     <row r="1980" spans="1:2">
@@ -16311,7 +16311,7 @@
         <v>1996</v>
       </c>
       <c r="B1996">
-        <v>43.20687708776482</v>
+        <v>43.20687708776481</v>
       </c>
     </row>
     <row r="1997" spans="1:2">
@@ -16335,7 +16335,7 @@
         <v>1999</v>
       </c>
       <c r="B1999">
-        <v>43.21742764515663</v>
+        <v>43.21742764515662</v>
       </c>
     </row>
     <row r="2000" spans="1:2">
@@ -16399,7 +16399,7 @@
         <v>2007</v>
       </c>
       <c r="B2007">
-        <v>18.29651286493939</v>
+        <v>18.29651286493938</v>
       </c>
     </row>
     <row r="2008" spans="1:2">
@@ -16423,7 +16423,7 @@
         <v>2010</v>
       </c>
       <c r="B2010">
-        <v>14.79964784583995</v>
+        <v>14.79964784583994</v>
       </c>
     </row>
     <row r="2011" spans="1:2">
@@ -16471,7 +16471,7 @@
         <v>2016</v>
       </c>
       <c r="B2016">
-        <v>38.08370226092584</v>
+        <v>38.08370226092583</v>
       </c>
     </row>
     <row r="2017" spans="1:2">
@@ -16719,7 +16719,7 @@
         <v>2047</v>
       </c>
       <c r="B2047">
-        <v>69.69639598820918</v>
+        <v>69.69639598820916</v>
       </c>
     </row>
     <row r="2048" spans="1:2">
@@ -16735,7 +16735,7 @@
         <v>2049</v>
       </c>
       <c r="B2049">
-        <v>45.60419818401462</v>
+        <v>45.60419818401461</v>
       </c>
     </row>
     <row r="2050" spans="1:2">
@@ -16743,7 +16743,7 @@
         <v>2050</v>
       </c>
       <c r="B2050">
-        <v>35.9308024109196</v>
+        <v>35.93080241091959</v>
       </c>
     </row>
     <row r="2051" spans="1:2">
@@ -16807,7 +16807,7 @@
         <v>2058</v>
       </c>
       <c r="B2058">
-        <v>38.7155634202797</v>
+        <v>38.71556342027969</v>
       </c>
     </row>
     <row r="2059" spans="1:2">
@@ -16919,7 +16919,7 @@
         <v>2072</v>
       </c>
       <c r="B2072">
-        <v>49.5635879163294</v>
+        <v>49.56358791632939</v>
       </c>
     </row>
     <row r="2073" spans="1:2">
@@ -16935,7 +16935,7 @@
         <v>2074</v>
       </c>
       <c r="B2074">
-        <v>42.20574641969766</v>
+        <v>42.20574641969765</v>
       </c>
     </row>
     <row r="2075" spans="1:2">
@@ -17095,7 +17095,7 @@
         <v>2094</v>
       </c>
       <c r="B2094">
-        <v>62.83677525730173</v>
+        <v>62.83677525730172</v>
       </c>
     </row>
     <row r="2095" spans="1:2">
@@ -17895,7 +17895,7 @@
         <v>2194</v>
       </c>
       <c r="B2194">
-        <v>0.8783309721576652</v>
+        <v>0.8783309721576651</v>
       </c>
     </row>
     <row r="2195" spans="1:2">
@@ -19399,7 +19399,7 @@
         <v>2382</v>
       </c>
       <c r="B2382">
-        <v>75.19382253141869</v>
+        <v>75.19382253141868</v>
       </c>
     </row>
     <row r="2383" spans="1:2">
@@ -19615,7 +19615,7 @@
         <v>2409</v>
       </c>
       <c r="B2409">
-        <v>10.97395712136248</v>
+        <v>10.97395712136247</v>
       </c>
     </row>
     <row r="2410" spans="1:2">
@@ -19623,7 +19623,7 @@
         <v>2410</v>
       </c>
       <c r="B2410">
-        <v>7.627349623784708</v>
+        <v>7.627349623784707</v>
       </c>
     </row>
     <row r="2411" spans="1:2">
@@ -20463,7 +20463,7 @@
         <v>2515</v>
       </c>
       <c r="B2515">
-        <v>0.6687031196239782</v>
+        <v>0.6687031196239781</v>
       </c>
     </row>
     <row r="2516" spans="1:2">
@@ -21127,7 +21127,7 @@
         <v>2598</v>
       </c>
       <c r="B2598">
-        <v>51.35688960189817</v>
+        <v>51.35688960189816</v>
       </c>
     </row>
     <row r="2599" spans="1:2">
@@ -21951,7 +21951,7 @@
         <v>2701</v>
       </c>
       <c r="B2701">
-        <v>0.7486294532877003</v>
+        <v>0.7486294532877001</v>
       </c>
     </row>
     <row r="2702" spans="1:2">
@@ -21983,7 +21983,7 @@
         <v>2705</v>
       </c>
       <c r="B2705">
-        <v>2.725337925561129</v>
+        <v>2.725337925561128</v>
       </c>
     </row>
     <row r="2706" spans="1:2">
@@ -58167,7 +58167,7 @@
         <v>7228</v>
       </c>
       <c r="B7228">
-        <v>31.33427624055506</v>
+        <v>31.33427624055505</v>
       </c>
     </row>
     <row r="7229" spans="1:2">
@@ -58279,7 +58279,7 @@
         <v>7242</v>
       </c>
       <c r="B7242">
-        <v>0.7019871974847472</v>
+        <v>0.7019871974847471</v>
       </c>
     </row>
     <row r="7243" spans="1:2">
@@ -58367,7 +58367,7 @@
         <v>7253</v>
       </c>
       <c r="B7253">
-        <v>94.71206063522564</v>
+        <v>94.7120606352256</v>
       </c>
     </row>
     <row r="7254" spans="1:2">
@@ -59535,7 +59535,7 @@
         <v>7399</v>
       </c>
       <c r="B7399">
-        <v>59.91690849911874</v>
+        <v>59.91690849911873</v>
       </c>
     </row>
     <row r="7400" spans="1:2">
@@ -59543,7 +59543,7 @@
         <v>7400</v>
       </c>
       <c r="B7400">
-        <v>27.55884719920801</v>
+        <v>27.558847199208</v>
       </c>
     </row>
     <row r="7401" spans="1:2">
@@ -59751,7 +59751,7 @@
         <v>7426</v>
       </c>
       <c r="B7426">
-        <v>7.046570746469521</v>
+        <v>7.04657074646952</v>
       </c>
     </row>
     <row r="7427" spans="1:2">
@@ -60111,7 +60111,7 @@
         <v>7471</v>
       </c>
       <c r="B7471">
-        <v>45.46147258818655</v>
+        <v>45.46147258818654</v>
       </c>
     </row>
     <row r="7472" spans="1:2">
@@ -61135,7 +61135,7 @@
         <v>7599</v>
       </c>
       <c r="B7599">
-        <v>0.4071929011160732</v>
+        <v>0.4071929011160731</v>
       </c>
     </row>
     <row r="7600" spans="1:2">
@@ -61167,7 +61167,7 @@
         <v>7603</v>
       </c>
       <c r="B7603">
-        <v>15.64295975958797</v>
+        <v>15.64295975958796</v>
       </c>
     </row>
     <row r="7604" spans="1:2">
@@ -61263,7 +61263,7 @@
         <v>7615</v>
       </c>
       <c r="B7615">
-        <v>63.62660170649405</v>
+        <v>63.62660170649404</v>
       </c>
     </row>
     <row r="7616" spans="1:2">
@@ -61271,7 +61271,7 @@
         <v>7616</v>
       </c>
       <c r="B7616">
-        <v>40.72808224276716</v>
+        <v>40.72808224276715</v>
       </c>
     </row>
     <row r="7617" spans="1:2">
@@ -61311,7 +61311,7 @@
         <v>7621</v>
       </c>
       <c r="B7621">
-        <v>19.05840964414729</v>
+        <v>19.05840964414728</v>
       </c>
     </row>
     <row r="7622" spans="1:2">
@@ -61327,7 +61327,7 @@
         <v>7623</v>
       </c>
       <c r="B7623">
-        <v>0.9971683476244542</v>
+        <v>0.9971683476244541</v>
       </c>
     </row>
     <row r="7624" spans="1:2">
@@ -61471,7 +61471,7 @@
         <v>7641</v>
       </c>
       <c r="B7641">
-        <v>28.62366220397628</v>
+        <v>28.62366220397627</v>
       </c>
     </row>
     <row r="7642" spans="1:2">
@@ -61639,7 +61639,7 @@
         <v>7662</v>
       </c>
       <c r="B7662">
-        <v>230.3359590544591</v>
+        <v>230.335959054459</v>
       </c>
     </row>
     <row r="7663" spans="1:2">
@@ -61687,7 +61687,7 @@
         <v>7668</v>
       </c>
       <c r="B7668">
-        <v>12.24398046740142</v>
+        <v>12.24398046740141</v>
       </c>
     </row>
     <row r="7669" spans="1:2">
@@ -61743,7 +61743,7 @@
         <v>7675</v>
       </c>
       <c r="B7675">
-        <v>27.00022449241562</v>
+        <v>27.00022449241561</v>
       </c>
     </row>
     <row r="7676" spans="1:2">
@@ -62103,7 +62103,7 @@
         <v>7720</v>
       </c>
       <c r="B7720">
-        <v>0.665945321150175</v>
+        <v>0.6659453211501749</v>
       </c>
     </row>
     <row r="7721" spans="1:2">
@@ -62151,7 +62151,7 @@
         <v>7726</v>
       </c>
       <c r="B7726">
-        <v>42.23388123940915</v>
+        <v>42.23388123940914</v>
       </c>
     </row>
     <row r="7727" spans="1:2">
@@ -62207,7 +62207,7 @@
         <v>7733</v>
       </c>
       <c r="B7733">
-        <v>57.32381594904316</v>
+        <v>57.32381594904315</v>
       </c>
     </row>
     <row r="7734" spans="1:2">
@@ -62239,7 +62239,7 @@
         <v>7737</v>
       </c>
       <c r="B7737">
-        <v>88.47023365381629</v>
+        <v>88.47023365381628</v>
       </c>
     </row>
     <row r="7738" spans="1:2">
@@ -62247,7 +62247,7 @@
         <v>7738</v>
       </c>
       <c r="B7738">
-        <v>75.97133999698724</v>
+        <v>75.97133999698723</v>
       </c>
     </row>
     <row r="7739" spans="1:2">
@@ -62255,7 +62255,7 @@
         <v>7739</v>
       </c>
       <c r="B7739">
-        <v>73.68304132711945</v>
+        <v>73.68304132711944</v>
       </c>
     </row>
     <row r="7740" spans="1:2">
@@ -62263,7 +62263,7 @@
         <v>7740</v>
       </c>
       <c r="B7740">
-        <v>66.13441058431918</v>
+        <v>66.13441058431917</v>
       </c>
     </row>
     <row r="7741" spans="1:2">
@@ -62271,7 +62271,7 @@
         <v>7741</v>
       </c>
       <c r="B7741">
-        <v>65.96941158955285</v>
+        <v>65.96941158955283</v>
       </c>
     </row>
     <row r="7742" spans="1:2">
@@ -62287,7 +62287,7 @@
         <v>7743</v>
       </c>
       <c r="B7743">
-        <v>59.97083357023243</v>
+        <v>59.97083357023242</v>
       </c>
     </row>
     <row r="7744" spans="1:2">
@@ -62375,7 +62375,7 @@
         <v>7754</v>
       </c>
       <c r="B7754">
-        <v>44.48847673983088</v>
+        <v>44.48847673983087</v>
       </c>
     </row>
     <row r="7755" spans="1:2">
@@ -62503,7 +62503,7 @@
         <v>7770</v>
       </c>
       <c r="B7770">
-        <v>54.93411469979855</v>
+        <v>54.93411469979854</v>
       </c>
     </row>
     <row r="7771" spans="1:2">
@@ -62687,7 +62687,7 @@
         <v>7793</v>
       </c>
       <c r="B7793">
-        <v>53.14813979019631</v>
+        <v>53.1481397901963</v>
       </c>
     </row>
     <row r="7794" spans="1:2">
@@ -62759,7 +62759,7 @@
         <v>7802</v>
       </c>
       <c r="B7802">
-        <v>49.61927141367505</v>
+        <v>49.61927141367504</v>
       </c>
     </row>
     <row r="7803" spans="1:2">
@@ -62775,7 +62775,7 @@
         <v>7804</v>
       </c>
       <c r="B7804">
-        <v>57.91200952363648</v>
+        <v>57.91200952363647</v>
       </c>
     </row>
     <row r="7805" spans="1:2">
@@ -62807,7 +62807,7 @@
         <v>7808</v>
       </c>
       <c r="B7808">
-        <v>71.06943380433758</v>
+        <v>71.06943380433756</v>
       </c>
     </row>
     <row r="7809" spans="1:2">
@@ -62815,7 +62815,7 @@
         <v>7809</v>
       </c>
       <c r="B7809">
-        <v>37.0597120518431</v>
+        <v>37.05971205184309</v>
       </c>
     </row>
     <row r="7810" spans="1:2">
@@ -62903,7 +62903,7 @@
         <v>7820</v>
       </c>
       <c r="B7820">
-        <v>53.20939163727653</v>
+        <v>53.20939163727652</v>
       </c>
     </row>
     <row r="7821" spans="1:2">
@@ -62967,7 +62967,7 @@
         <v>7828</v>
       </c>
       <c r="B7828">
-        <v>79.80558839579362</v>
+        <v>79.80558839579361</v>
       </c>
     </row>
     <row r="7829" spans="1:2">
@@ -63039,7 +63039,7 @@
         <v>7837</v>
       </c>
       <c r="B7837">
-        <v>47.64748946556152</v>
+        <v>47.64748946556151</v>
       </c>
     </row>
     <row r="7838" spans="1:2">
@@ -63319,7 +63319,7 @@
         <v>7872</v>
       </c>
       <c r="B7872">
-        <v>64.23150033029107</v>
+        <v>64.23150033029106</v>
       </c>
     </row>
     <row r="7873" spans="1:2">
@@ -63495,7 +63495,7 @@
         <v>7894</v>
       </c>
       <c r="B7894">
-        <v>48.97744583900671</v>
+        <v>48.9774458390067</v>
       </c>
     </row>
     <row r="7895" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>14.51548616675391</v>
+        <v>14.5154861667539</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63799,7 +63799,7 @@
         <v>7932</v>
       </c>
       <c r="B7932">
-        <v>0.7752989178058827</v>
+        <v>0.7752989178058826</v>
       </c>
     </row>
     <row r="7933" spans="1:2">
@@ -64159,7 +64159,7 @@
         <v>7977</v>
       </c>
       <c r="B7977">
-        <v>46.88609090711935</v>
+        <v>46.88609090711934</v>
       </c>
     </row>
     <row r="7978" spans="1:2">
@@ -64215,7 +64215,7 @@
         <v>7984</v>
       </c>
       <c r="B7984">
-        <v>6.287575370544368</v>
+        <v>6.287575370544367</v>
       </c>
     </row>
     <row r="7985" spans="1:2">
@@ -64351,7 +64351,7 @@
         <v>8001</v>
       </c>
       <c r="B8001">
-        <v>39.08747056834095</v>
+        <v>39.08747056834094</v>
       </c>
     </row>
     <row r="8002" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>0.4044907861396156</v>
+        <v>0.4044907861396155</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -64895,7 +64895,7 @@
         <v>8069</v>
       </c>
       <c r="B8069">
-        <v>12.65908628656135</v>
+        <v>12.65908628656134</v>
       </c>
     </row>
     <row r="8070" spans="1:2">
@@ -66071,7 +66071,7 @@
         <v>8216</v>
       </c>
       <c r="B8216">
-        <v>4.46051190132181</v>
+        <v>4.460511901321809</v>
       </c>
     </row>
     <row r="8217" spans="1:2">
@@ -66079,7 +66079,7 @@
         <v>8217</v>
       </c>
       <c r="B8217">
-        <v>3.145590072159952</v>
+        <v>3.145590072159951</v>
       </c>
     </row>
     <row r="8218" spans="1:2">
@@ -66087,7 +66087,7 @@
         <v>8218</v>
       </c>
       <c r="B8218">
-        <v>0.96913317206611</v>
+        <v>0.9691331720661098</v>
       </c>
     </row>
     <row r="8219" spans="1:2">
@@ -66279,7 +66279,7 @@
         <v>8242</v>
       </c>
       <c r="B8242">
-        <v>38.05322287290506</v>
+        <v>38.05322287290505</v>
       </c>
     </row>
     <row r="8243" spans="1:2">
@@ -66623,7 +66623,7 @@
         <v>8285</v>
       </c>
       <c r="B8285">
-        <v>25.92321773243904</v>
+        <v>25.92321773243903</v>
       </c>
     </row>
     <row r="8286" spans="1:2">
@@ -66807,7 +66807,7 @@
         <v>8308</v>
       </c>
       <c r="B8308">
-        <v>7.142873889773639</v>
+        <v>7.142873889773638</v>
       </c>
     </row>
     <row r="8309" spans="1:2">
@@ -66855,7 +66855,7 @@
         <v>8314</v>
       </c>
       <c r="B8314">
-        <v>58.08257686813738</v>
+        <v>58.08257686813737</v>
       </c>
     </row>
     <row r="8315" spans="1:2">
@@ -66927,7 +66927,7 @@
         <v>8323</v>
       </c>
       <c r="B8323">
-        <v>51.83342311076152</v>
+        <v>51.83342311076151</v>
       </c>
     </row>
     <row r="8324" spans="1:2">
@@ -67175,7 +67175,7 @@
         <v>8354</v>
       </c>
       <c r="B8354">
-        <v>23.94366940180098</v>
+        <v>23.94366940180097</v>
       </c>
     </row>
     <row r="8355" spans="1:2">
@@ -67199,7 +67199,7 @@
         <v>8357</v>
       </c>
       <c r="B8357">
-        <v>49.03869768608693</v>
+        <v>49.03869768608692</v>
       </c>
     </row>
     <row r="8358" spans="1:2">
@@ -67207,7 +67207,7 @@
         <v>8358</v>
       </c>
       <c r="B8358">
-        <v>55.26792261283382</v>
+        <v>55.26792261283381</v>
       </c>
     </row>
     <row r="8359" spans="1:2">
@@ -67247,7 +67247,7 @@
         <v>8363</v>
       </c>
       <c r="B8363">
-        <v>4.941705239699872</v>
+        <v>4.941705239699871</v>
       </c>
     </row>
     <row r="8364" spans="1:2">
@@ -67383,7 +67383,7 @@
         <v>8380</v>
       </c>
       <c r="B8380">
-        <v>50.72033930592573</v>
+        <v>50.72033930592572</v>
       </c>
     </row>
     <row r="8381" spans="1:2">
@@ -67519,7 +67519,7 @@
         <v>8397</v>
       </c>
       <c r="B8397">
-        <v>39.23781601117422</v>
+        <v>39.23781601117421</v>
       </c>
     </row>
     <row r="8398" spans="1:2">
@@ -67527,7 +67527,7 @@
         <v>8398</v>
       </c>
       <c r="B8398">
-        <v>39.26595083088571</v>
+        <v>39.2659508308857</v>
       </c>
     </row>
     <row r="8399" spans="1:2">
@@ -67575,7 +67575,7 @@
         <v>8404</v>
       </c>
       <c r="B8404">
-        <v>44.66695700237564</v>
+        <v>44.66695700237563</v>
       </c>
     </row>
     <row r="8405" spans="1:2">
@@ -67631,7 +67631,7 @@
         <v>8411</v>
       </c>
       <c r="B8411">
-        <v>38.81725907069519</v>
+        <v>38.81725907069518</v>
       </c>
     </row>
     <row r="8412" spans="1:2">
@@ -67655,7 +67655,7 @@
         <v>8414</v>
       </c>
       <c r="B8414">
-        <v>28.19390283288328</v>
+        <v>28.19390283288327</v>
       </c>
     </row>
     <row r="8415" spans="1:2">
@@ -67807,7 +67807,7 @@
         <v>8433</v>
       </c>
       <c r="B8433">
-        <v>45.84891250129685</v>
+        <v>45.84891250129684</v>
       </c>
     </row>
     <row r="8434" spans="1:2">
@@ -67879,7 +67879,7 @@
         <v>8442</v>
       </c>
       <c r="B8442">
-        <v>28.90521555081823</v>
+        <v>28.90521555081822</v>
       </c>
     </row>
     <row r="8443" spans="1:2">
@@ -68175,7 +68175,7 @@
         <v>8479</v>
       </c>
       <c r="B8479">
-        <v>77.80537855692994</v>
+        <v>77.80537855692992</v>
       </c>
     </row>
     <row r="8480" spans="1:2">
@@ -68375,7 +68375,7 @@
         <v>8504</v>
       </c>
       <c r="B8504">
-        <v>38.36651581323404</v>
+        <v>38.36651581323403</v>
       </c>
     </row>
     <row r="8505" spans="1:2">
@@ -68391,7 +68391,7 @@
         <v>8506</v>
       </c>
       <c r="B8506">
-        <v>24.27615849516228</v>
+        <v>24.27615849516227</v>
       </c>
     </row>
     <row r="8507" spans="1:2">
@@ -68455,7 +68455,7 @@
         <v>8514</v>
       </c>
       <c r="B8514">
-        <v>8.632964278743383</v>
+        <v>8.632964278743382</v>
       </c>
     </row>
     <row r="8515" spans="1:2">
@@ -68671,7 +68671,7 @@
         <v>8541</v>
       </c>
       <c r="B8541">
-        <v>47.0540206122723</v>
+        <v>47.05402061227229</v>
       </c>
     </row>
     <row r="8542" spans="1:2">
@@ -68719,7 +68719,7 @@
         <v>8547</v>
       </c>
       <c r="B8547">
-        <v>80.62296352262011</v>
+        <v>80.6229635226201</v>
       </c>
     </row>
     <row r="8548" spans="1:2">
@@ -68815,7 +68815,7 @@
         <v>8559</v>
       </c>
       <c r="B8559">
-        <v>61.21404091623386</v>
+        <v>61.21404091623385</v>
       </c>
     </row>
     <row r="8560" spans="1:2">
@@ -68823,7 +68823,7 @@
         <v>8560</v>
       </c>
       <c r="B8560">
-        <v>68.08098842310784</v>
+        <v>68.08098842310783</v>
       </c>
     </row>
     <row r="8561" spans="1:2">
@@ -68871,7 +68871,7 @@
         <v>8566</v>
       </c>
       <c r="B8566">
-        <v>86.6945162305672</v>
+        <v>86.69451623056719</v>
       </c>
     </row>
     <row r="8567" spans="1:2">
@@ -68903,7 +68903,7 @@
         <v>8570</v>
       </c>
       <c r="B8570">
-        <v>89.09213039785567</v>
+        <v>89.09213039785566</v>
       </c>
     </row>
     <row r="8571" spans="1:2">
@@ -69023,7 +69023,7 @@
         <v>8585</v>
       </c>
       <c r="B8585">
-        <v>77.38804539787618</v>
+        <v>77.38804539787617</v>
       </c>
     </row>
     <row r="8586" spans="1:2">
@@ -69095,7 +69095,7 @@
         <v>8594</v>
       </c>
       <c r="B8594">
-        <v>53.53264899292</v>
+        <v>53.53264899291999</v>
       </c>
     </row>
     <row r="8595" spans="1:2">
@@ -69119,7 +69119,7 @@
         <v>8597</v>
       </c>
       <c r="B8597">
-        <v>65.95417189554246</v>
+        <v>65.95417189554244</v>
       </c>
     </row>
     <row r="8598" spans="1:2">
@@ -69175,7 +69175,7 @@
         <v>8604</v>
       </c>
       <c r="B8604">
-        <v>24.71881299195638</v>
+        <v>24.71881299195637</v>
       </c>
     </row>
     <row r="8605" spans="1:2">
@@ -69183,7 +69183,7 @@
         <v>8605</v>
       </c>
       <c r="B8605">
-        <v>24.64267313611216</v>
+        <v>24.64267313611215</v>
       </c>
     </row>
     <row r="8606" spans="1:2">
@@ -69255,7 +69255,7 @@
         <v>8614</v>
       </c>
       <c r="B8614">
-        <v>76.18264421586207</v>
+        <v>76.18264421586206</v>
       </c>
     </row>
     <row r="8615" spans="1:2">
@@ -69271,7 +69271,7 @@
         <v>8616</v>
       </c>
       <c r="B8616">
-        <v>81.41777217946968</v>
+        <v>81.41777217946967</v>
       </c>
     </row>
     <row r="8617" spans="1:2">
@@ -69311,7 +69311,7 @@
         <v>8621</v>
       </c>
       <c r="B8621">
-        <v>92.14680983382289</v>
+        <v>92.14680983382286</v>
       </c>
     </row>
     <row r="8622" spans="1:2">
@@ -69415,7 +69415,7 @@
         <v>8634</v>
       </c>
       <c r="B8634">
-        <v>84.13131692643508</v>
+        <v>84.13131692643506</v>
       </c>
     </row>
     <row r="8635" spans="1:2">
@@ -69591,7 +69591,7 @@
         <v>8656</v>
       </c>
       <c r="B8656">
-        <v>32.60385998003601</v>
+        <v>32.603859980036</v>
       </c>
     </row>
     <row r="8657" spans="1:2">
@@ -69911,7 +69911,7 @@
         <v>8696</v>
       </c>
       <c r="B8696">
-        <v>41.74972788354061</v>
+        <v>41.7497278835406</v>
       </c>
     </row>
     <row r="8697" spans="1:2">
@@ -69959,7 +69959,7 @@
         <v>8702</v>
       </c>
       <c r="B8702">
-        <v>38.62646982452665</v>
+        <v>38.62646982452664</v>
       </c>
     </row>
     <row r="8703" spans="1:2">
@@ -69975,7 +69975,7 @@
         <v>8704</v>
       </c>
       <c r="B8704">
-        <v>40.18062554254777</v>
+        <v>40.18062554254776</v>
       </c>
     </row>
     <row r="8705" spans="1:2">
@@ -70047,7 +70047,7 @@
         <v>8713</v>
       </c>
       <c r="B8713">
-        <v>58.29182958974158</v>
+        <v>58.29182958974157</v>
       </c>
     </row>
     <row r="8714" spans="1:2">
@@ -70071,7 +70071,7 @@
         <v>8716</v>
       </c>
       <c r="B8716">
-        <v>60.70204581169249</v>
+        <v>60.70204581169248</v>
       </c>
     </row>
     <row r="8717" spans="1:2">
@@ -70191,7 +70191,7 @@
         <v>8731</v>
       </c>
       <c r="B8731">
-        <v>69.72160009753405</v>
+        <v>69.72160009753404</v>
       </c>
     </row>
     <row r="8732" spans="1:2">
@@ -70239,7 +70239,7 @@
         <v>8737</v>
       </c>
       <c r="B8737">
-        <v>88.87496475820761</v>
+        <v>88.8749647582076</v>
       </c>
     </row>
     <row r="8738" spans="1:2">
@@ -70359,7 +70359,7 @@
         <v>8752</v>
       </c>
       <c r="B8752">
-        <v>75.4666716684124</v>
+        <v>75.46667166841239</v>
       </c>
     </row>
     <row r="8753" spans="1:2">
@@ -70407,7 +70407,7 @@
         <v>8758</v>
       </c>
       <c r="B8758">
-        <v>17.55410530980247</v>
+        <v>17.55410530980246</v>
       </c>
     </row>
     <row r="8759" spans="1:2">
@@ -70423,7 +70423,7 @@
         <v>8760</v>
       </c>
       <c r="B8760">
-        <v>61.69262592236783</v>
+        <v>61.69262592236782</v>
       </c>
     </row>
   </sheetData>
